--- a/data/data_4.xlsx
+++ b/data/data_4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NLP-DL\src\corpora_excel\book\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_repository\NER_Data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9703A33-7A3A-4CB4-94EE-A01447132135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7DE09D-7143-4307-91D3-1C699D0412E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1434,382 +1434,335 @@
     <t>阿胶</t>
   </si>
   <si>
+    <t>OOBIOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOBIOOOOOOO</t>
+  </si>
+  <si>
+    <t>生地黄,地黄</t>
+  </si>
+  <si>
+    <t>方中重用生地黄滋阴养血为君，《名医别录》谓地黄补五脏内伤不足，通血脉，益气力。</t>
+  </si>
+  <si>
+    <t>OOOOBIIOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>炙甘草,人参,大枣,阿胶,麦冬,麻仁</t>
+  </si>
+  <si>
+    <t>配伍炙甘草、人参、大枣益心气，补脾气，以资气血生化之源；阿胶、麦冬、麻仁滋心阴，养心血，充血脉，共为臣药。</t>
+  </si>
+  <si>
+    <t>OOBIIOBIOBIOOOOOOOOOOOOOOOOOBIOBIOBIOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>桂枝,生姜</t>
+  </si>
+  <si>
+    <t>佐以桂枝、生姜辛行温通，温心阳，通血脉，诸厚味滋腻之品得姜、桂则滋而不腻。</t>
+  </si>
+  <si>
+    <t>OOBIOBIOOOOOOOOOOOOOOOOOOOOOBOBOOOOOO</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>虚劳肺痿属气阴两伤者，使用本方，是用其益气滋阴而补肺，但对阴伤肺燥较甚者，方中姜、桂、酒减少用量或不用，因为温药毕竟有耗伤阴液之弊，故应慎用。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBOBOBOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>五味子,炙甘草汤</t>
+  </si>
+  <si>
+    <t>但本方益气养阴作用较强，敛肺止咳之力不足，重在治本，且偏于温补，阴虚肺燥较著或兼内热者不宜；而生脉散益气养阴之力虽不及本方，因配伍了收敛的五味子，标本兼顾，故止咳之功甚于炙甘草汤，且偏于清补，临证之时可斟酌选用。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOOOOOOObiiiOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>酸枣仁,柏子仁,龙齿,磁石,炙甘草,人参,生地,麦门冬,桂枝,肉桂,附子,人参,南沙参,酒,知母,黄柏</t>
+  </si>
+  <si>
+    <t>方中可加酸枣仁、柏子仁以增强养心安神定悸之力，或加龙齿、磁石重镇安神；偏于心气不足者，重用炙甘草、人参；偏于阴血虚者重用生地、麦门冬；心阳偏虚者，易桂枝为肉桂，加附子以增强温心阳之力；阴虚而内热较盛者，易人参为南沙参，并减去桂、姜、枣、酒，酌加知母、黄柏，则滋阴液降虚火之力更强。</t>
+  </si>
+  <si>
+    <t>OOOOBIIOBIIOOOOOOOOOOOOOOBIOBIOOOOOOOOOOOOOOOBIIOBIOOOOOOOOOBIOBIIOOOOOOOOBIOBIOOBIOOOOOOOOOOOOOOOOOOOBIOBIIOOOOBOBOBOBOOOBIOBIOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>熟地黄</t>
+  </si>
+  <si>
+    <t>方中重用熟地黄滋阴补肾，填精益髓，为君药。</t>
+  </si>
+  <si>
+    <t>OOOOBIIOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>山茱萸,山药</t>
+  </si>
+  <si>
+    <t>山茱萸补养肝肾，并能涩精，取肝肾同源之意；山药补益脾阴，亦能固肾，共为臣药。</t>
+  </si>
+  <si>
+    <t>BIIOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>熟地黄,山萸肉,山药</t>
+  </si>
+  <si>
+    <t>三药配合，肾肝脾三阴并补，是为三补，但熟地黄用量是山萸肉与山药之和，故仍以补肾为主。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOBIIOOOBIIOBIOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>泽泻,熟地黄,茯苓,山药,泽泻,丹皮,山萸肉</t>
+  </si>
+  <si>
+    <t>泽泻利湿而泄肾浊，并能减熟地黄之滋腻；茯苓淡渗脾湿，并助山药之健运，与泽泻共泻肾浊，助真阴得复其位；丹皮清泄虚热，并制山萸肉之温涩。</t>
+  </si>
+  <si>
+    <t>BIOOOOOOOOOOBIIOOOOBIOOOOOOOBIOOOOOBIOOOOOOOOOOOOOBIOOOOOOOBIIOOOO</t>
+  </si>
+  <si>
+    <t>肾气丸,桂枝,附子</t>
+  </si>
+  <si>
+    <t>六味地黄丸系宋钱乙从《金匮要略》的肾气丸减去桂枝、附子而成，原名地黄丸，用治肾怯诸证。</t>
+  </si>
+  <si>
+    <t>biiiiOOOOOOOOOOOObiiOOBIOBIOOOObiiOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>知母,玄参,黄柏,白术,砂仁,陈皮</t>
+  </si>
+  <si>
+    <t>若虚火明显者，加知母、玄参、黄柏等以加强清热降火之功；兼脾虚气滞者，加白术、砂仁、陈皮等以健脾和胃。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOBIOBIOBIOOOOOOOOOOOOOOOOOOOBIOBIOBIOOOOOOO</t>
+  </si>
+  <si>
+    <t>熟地,龟板</t>
+  </si>
+  <si>
+    <t>本方以滋阴降火为法，以阴常不足，阳常有余，宜常养其阴，阴与阳齐，则水能制火(《医宗金鉴删补名医方论》)为理论依据，方中重用熟地、龟板滋阴潜阳，壮水制火，即所谓培其本，共为君药。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBIOBIOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>黄柏,知母,黄柏</t>
+  </si>
+  <si>
+    <t>继以黄柏苦寒泻相火以坚阴；知母苦寒而润，上能清润肺金，下能滋清肾水，与黄柏相须为用，苦寒降火，保存阴液，平抑亢阳，即所谓清其源，均为臣药。</t>
+  </si>
+  <si>
+    <t>OOBIOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>蜂蜜,熟地,龟板,黄柏</t>
+  </si>
+  <si>
+    <t>应用猪脊髓、蜂蜜为丸，此乃血肉甘润之品，填精益髓，既能助熟地、龟板以滋阴，又能制黄柏之苦燥，俱为佐使。</t>
+  </si>
+  <si>
+    <t>OOBIIOBIOOOOOOOOOOOOOOOOOOOOBIOBIOOOOOOOBIOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>龟板,熟地</t>
+  </si>
+  <si>
+    <t>其中龟板、熟地用量较重，与知、柏的比例为3：2，表明本方以滋阴培本为主，降火清源为辅。</t>
+  </si>
+  <si>
+    <t>OOBIOBIOOOOOOBOBOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>大补阴丸</t>
+  </si>
+  <si>
+    <t>大补阴丸与六味地黄丸虽均能滋阴降火，但后者偏于补养肾阴，而清热之力不足；前者则滋阴与降火之力较强，故对阴虚而火旺明显者，选用该方为宜。</t>
+  </si>
+  <si>
+    <t>biiiObiiiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>天门冬,麦门冬,地骨皮,仙鹤草,旱莲草,白茅根,金樱子,芡实,桑螵蛸,山茱萸</t>
+  </si>
+  <si>
+    <t>若阴虚较重者，可加天门冬、麦门冬以润燥养阴；阴虚盗汗者，可加地骨皮以退热除蒸；咯血、吐血者，加仙鹤草、旱莲草、白茅根以凉血止血；遗精者，加金樱子、芡实、桑螵蛸、山茱萸以固精止遗。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOBIIOBIIOOOOOOOOOOOOOOBIIOOOOOOOOOOOOOOBIIOBIIOBIIOOOOOOOOOOOBIIOBIOBIIOBIIOOOOOO</t>
+  </si>
+  <si>
+    <t>生地黄</t>
+  </si>
+  <si>
+    <t>方中重用生地黄滋阴养血、补益肝肾为君，内寓滋水涵木之意。</t>
+  </si>
+  <si>
+    <t>OOOOBIIOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>当归,枸杞,北沙参,麦冬</t>
+  </si>
+  <si>
+    <t>当归、枸杞养血滋阴柔肝；北沙参、麦冬滋养肺胃，养阴生津，意在佐金平木，扶土制木，四药共为臣药。</t>
+  </si>
+  <si>
+    <t>BIOBIOOOOOOOBIIOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>川楝子</t>
+  </si>
+  <si>
+    <t>佐以少量川楝子，疏肝泄热，理气止痛，复其条达之性。</t>
+  </si>
+  <si>
+    <t>OOOOBIIOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>本方配伍特点：在大队滋阴养血药中，少佐一味川楝子疏肝理气，补肝与疏肝相结合，以补为主，使肝体得养，而无滋腻碍胃遏滞气机之虞，且无伤及阴血之弊。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>一贯煎,逍遥散</t>
+  </si>
+  <si>
+    <t>一贯煎与逍遥散都能疏肝理气，均可治肝郁气滞之胁痛。</t>
+  </si>
+  <si>
+    <t>biiObiiOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>逍遥散,一贯煎</t>
+  </si>
+  <si>
+    <t>不同之处：逍遥散疏肝养血健脾的作用较强，主治肝郁血虚之胁痛，并伴有神疲食少等脾虚症状；一贯煎滋养肝肾的作用较强，主治肝肾阴虚之胁痛，且见吞酸吐苦等肝气犯胃症状者。</t>
+  </si>
+  <si>
+    <t>OOOOObiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOObiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>瓜蒌,地骨皮,川贝母,石斛,鳖甲,知母,石膏,甘草,牛膝,薏仁,酸枣仁,黄连</t>
+  </si>
+  <si>
+    <t>若大便秘结，加瓜蒌仁；有虚热或汗多，加地骨皮；痰多，加川贝母；舌红而干，阴亏过甚，加石斛；胁胀痛，按之硬，加鳖甲；烦热而渴，加知母、石膏；腹痛，加芍药、甘草；两足痿软，加牛膝、薏仁；不寐，加酸枣仁；口苦燥，少加黄连。</t>
+  </si>
+  <si>
+    <t>OOOOOOOBIIOOOOOOOOOBIIOOOOOBIIOOOOOOOOOOOOBIOOOOOOOOOOBIOOOOOOOBIOBIOOOOOBIOBIOOOOOOOBIOBIOOOOOBIIOOOOOOOBIO</t>
+  </si>
+  <si>
+    <t>固本丸</t>
+  </si>
+  <si>
+    <t>柳州此方，虽从固本丸、集灵膏二方脱化而来，独加一味川楝；以调肝气之横逆，顺其条达之性，是为涵养肝阴第一良药。</t>
+  </si>
+  <si>
+    <t>OOOOOOObiiObiiOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>一贯煎</t>
+  </si>
+  <si>
+    <t>闫氏运用一贯煎加味治疗慢性萎缩性胃炎之胃阴不足型118例，总有效率为94.92％；对照组65例，总有效率73.68％。</t>
+  </si>
+  <si>
+    <t>OOOObiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>梧桐子</t>
+  </si>
+  <si>
+    <t>上为细末，炼蜜和丸，如梧桐子大，酒下十五丸(6g)，日再服。</t>
+  </si>
+  <si>
+    <t>OOOOOOBIIOOBIIOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>附子,桂枝</t>
+  </si>
+  <si>
+    <t>方中附子大辛大热，为温阳诸药之首；桂枝辛甘而温，乃温通阳气要药；二药相合，补肾阳之虚，助气化之复，共为君药。</t>
+  </si>
+  <si>
+    <t>OOBIOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
+  </si>
+  <si>
+    <t>干地黄,山茱萸,山药</t>
+  </si>
+  <si>
+    <t>然肾为水火之脏，内寓元阴元阳，阴阳一方的偏衰必将导致阴损及阳或阳损及阴，而且肾阳虚一般病程较久，多可由肾阴虚发展而来，若单补阳而不顾阴，则阳无以附，无从发挥温升之能，正如张介宾说：善补阳者，必于阴中求阳，则阳得阴助，而生化无穷(《类经》卷14)，故重用干地黄滋阴补肾；配伍山茱萸、山药补肝脾而益精血，共为臣药。</t>
+  </si>
+  <si>
+    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOBIIOBIOOOOOOOOOOOO0</t>
+  </si>
+  <si>
     <r>
       <t>上以</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>清酒</t>
+      <t>清酒七升，水八升，先煮八味，取三升，去滓，内胶烊消尽，温服一升，日三服(现代用法：水煎服，阿胶烊化，冲服)。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>七升，水八升，先煮八味，取三升，去滓，内胶烊消尽，温服一升，日三服(现代用法：水煎服，阿胶烊化，冲服)。</t>
-    </r>
-  </si>
-  <si>
-    <t>OOBIOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOBIOOOOOOO</t>
-  </si>
-  <si>
-    <t>生地黄,地黄</t>
-  </si>
-  <si>
-    <t>方中重用生地黄滋阴养血为君，《名医别录》谓地黄补五脏内伤不足，通血脉，益气力。</t>
-  </si>
-  <si>
-    <t>OOOOBIIOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>炙甘草,人参,大枣,阿胶,麦冬,麻仁</t>
-  </si>
-  <si>
-    <t>配伍炙甘草、人参、大枣益心气，补脾气，以资气血生化之源；阿胶、麦冬、麻仁滋心阴，养心血，充血脉，共为臣药。</t>
-  </si>
-  <si>
-    <t>OOBIIOBIOBIOOOOOOOOOOOOOOOOOBIOBIOBIOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>桂枝,生姜</t>
-  </si>
-  <si>
-    <t>佐以桂枝、生姜辛行温通，温心阳，通血脉，诸厚味滋腻之品得姜、桂则滋而不腻。</t>
-  </si>
-  <si>
-    <t>OOBIOBIOOOOOOOOOOOOOOOOOOOOOBOBOOOOOO</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>虚劳肺痿属气阴两伤者，使用本方，是用其益气滋阴而补肺，但对阴伤肺燥较甚者，方中姜、桂、酒减少用量或不用，因为温药毕竟有耗伤阴液之弊，故应慎用。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBOBOBOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>五味子,炙甘草汤</t>
-  </si>
-  <si>
-    <t>但本方益气养阴作用较强，敛肺止咳之力不足，重在治本，且偏于温补，阴虚肺燥较著或兼内热者不宜；而生脉散益气养阴之力虽不及本方，因配伍了收敛的五味子，标本兼顾，故止咳之功甚于炙甘草汤，且偏于清补，临证之时可斟酌选用。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOOOOOOObiiiOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>酸枣仁,柏子仁,龙齿,磁石,炙甘草,人参,生地,麦门冬,桂枝,肉桂,附子,人参,南沙参,酒,知母,黄柏</t>
-  </si>
-  <si>
-    <t>方中可加酸枣仁、柏子仁以增强养心安神定悸之力，或加龙齿、磁石重镇安神；偏于心气不足者，重用炙甘草、人参；偏于阴血虚者重用生地、麦门冬；心阳偏虚者，易桂枝为肉桂，加附子以增强温心阳之力；阴虚而内热较盛者，易人参为南沙参，并减去桂、姜、枣、酒，酌加知母、黄柏，则滋阴液降虚火之力更强。</t>
-  </si>
-  <si>
-    <t>OOOOBIIOBIIOOOOOOOOOOOOOOBIOBIOOOOOOOOOOOOOOOBIIOBIOOOOOOOOOBIOBIIOOOOOOOOBIOBIOOBIOOOOOOOOOOOOOOOOOOOBIOBIIOOOOBOBOBOBOOOBIOBIOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>熟地黄</t>
-  </si>
-  <si>
-    <t>方中重用熟地黄滋阴补肾，填精益髓，为君药。</t>
-  </si>
-  <si>
-    <t>OOOOBIIOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>山茱萸,山药</t>
-  </si>
-  <si>
-    <t>山茱萸补养肝肾，并能涩精，取肝肾同源之意；山药补益脾阴，亦能固肾，共为臣药。</t>
-  </si>
-  <si>
-    <t>BIIOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>熟地黄,山萸肉,山药</t>
-  </si>
-  <si>
-    <t>三药配合，肾肝脾三阴并补，是为三补，但熟地黄用量是山萸肉与山药之和，故仍以补肾为主。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOOOOOOOOOOOOBIIOOOBIIOBIOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>泽泻,熟地黄,茯苓,山药,泽泻,丹皮,山萸肉</t>
-  </si>
-  <si>
-    <t>泽泻利湿而泄肾浊，并能减熟地黄之滋腻；茯苓淡渗脾湿，并助山药之健运，与泽泻共泻肾浊，助真阴得复其位；丹皮清泄虚热，并制山萸肉之温涩。</t>
-  </si>
-  <si>
-    <t>BIOOOOOOOOOOBIIOOOOBIOOOOOOOBIOOOOOBIOOOOOOOOOOOOOBIOOOOOOOBIIOOOO</t>
-  </si>
-  <si>
-    <t>肾气丸,桂枝,附子</t>
-  </si>
-  <si>
-    <t>六味地黄丸系宋钱乙从《金匮要略》的肾气丸减去桂枝、附子而成，原名地黄丸，用治肾怯诸证。</t>
-  </si>
-  <si>
-    <t>biiiiOOOOOOOOOOOObiiOOBIOBIOOOObiiOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>知母,玄参,黄柏,白术,砂仁,陈皮</t>
-  </si>
-  <si>
-    <t>若虚火明显者，加知母、玄参、黄柏等以加强清热降火之功；兼脾虚气滞者，加白术、砂仁、陈皮等以健脾和胃。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOBIOBIOBIOOOOOOOOOOOOOOOOOOOBIOBIOBIOOOOOOO</t>
-  </si>
-  <si>
-    <t>熟地,龟板</t>
-  </si>
-  <si>
-    <t>本方以滋阴降火为法，以阴常不足，阳常有余，宜常养其阴，阴与阳齐，则水能制火(《医宗金鉴删补名医方论》)为理论依据，方中重用熟地、龟板滋阴潜阳，壮水制火，即所谓培其本，共为君药。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBIOBIOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>黄柏,知母,黄柏</t>
-  </si>
-  <si>
-    <t>继以黄柏苦寒泻相火以坚阴；知母苦寒而润，上能清润肺金，下能滋清肾水，与黄柏相须为用，苦寒降火，保存阴液，平抑亢阳，即所谓清其源，均为臣药。</t>
-  </si>
-  <si>
-    <t>OOBIOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>蜂蜜,熟地,龟板,黄柏</t>
-  </si>
-  <si>
-    <t>应用猪脊髓、蜂蜜为丸，此乃血肉甘润之品，填精益髓，既能助熟地、龟板以滋阴，又能制黄柏之苦燥，俱为佐使。</t>
-  </si>
-  <si>
-    <t>OOBIIOBIOOOOOOOOOOOOOOOOOOOOBIOBIOOOOOOOBIOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>龟板,熟地</t>
-  </si>
-  <si>
-    <t>其中龟板、熟地用量较重，与知、柏的比例为3：2，表明本方以滋阴培本为主，降火清源为辅。</t>
-  </si>
-  <si>
-    <t>OOBIOBIOOOOOOBOBOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>大补阴丸</t>
-  </si>
-  <si>
-    <t>大补阴丸与六味地黄丸虽均能滋阴降火，但后者偏于补养肾阴，而清热之力不足；前者则滋阴与降火之力较强，故对阴虚而火旺明显者，选用该方为宜。</t>
-  </si>
-  <si>
-    <t>biiiObiiiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>天门冬,麦门冬,地骨皮,仙鹤草,旱莲草,白茅根,金樱子,芡实,桑螵蛸,山茱萸</t>
-  </si>
-  <si>
-    <t>若阴虚较重者，可加天门冬、麦门冬以润燥养阴；阴虚盗汗者，可加地骨皮以退热除蒸；咯血、吐血者，加仙鹤草、旱莲草、白茅根以凉血止血；遗精者，加金樱子、芡实、桑螵蛸、山茱萸以固精止遗。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOOBIIOBIIOOOOOOOOOOOOOOBIIOOOOOOOOOOOOOOBIIOBIIOBIIOOOOOOOOOOOBIIOBIOBIIOBIIOOOOOO</t>
-  </si>
-  <si>
-    <t>生地黄</t>
-  </si>
-  <si>
-    <t>方中重用生地黄滋阴养血、补益肝肾为君，内寓滋水涵木之意。</t>
-  </si>
-  <si>
-    <t>OOOOBIIOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>当归,枸杞,北沙参,麦冬</t>
-  </si>
-  <si>
-    <t>当归、枸杞养血滋阴柔肝；北沙参、麦冬滋养肺胃，养阴生津，意在佐金平木，扶土制木，四药共为臣药。</t>
-  </si>
-  <si>
-    <t>BIOBIOOOOOOOBIIOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>川楝子</t>
-  </si>
-  <si>
-    <t>佐以少量川楝子，疏肝泄热，理气止痛，复其条达之性。</t>
-  </si>
-  <si>
-    <t>OOOOBIIOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>本方配伍特点：在大队滋阴养血药中，少佐一味川楝子疏肝理气，补肝与疏肝相结合，以补为主，使肝体得养，而无滋腻碍胃遏滞气机之虞，且无伤及阴血之弊。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>一贯煎,逍遥散</t>
-  </si>
-  <si>
-    <t>一贯煎与逍遥散都能疏肝理气，均可治肝郁气滞之胁痛。</t>
-  </si>
-  <si>
-    <t>biiObiiOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>逍遥散,一贯煎</t>
-  </si>
-  <si>
-    <t>不同之处：逍遥散疏肝养血健脾的作用较强，主治肝郁血虚之胁痛，并伴有神疲食少等脾虚症状；一贯煎滋养肝肾的作用较强，主治肝肾阴虚之胁痛，且见吞酸吐苦等肝气犯胃症状者。</t>
-  </si>
-  <si>
-    <t>OOOOObiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOObiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>瓜蒌,地骨皮,川贝母,石斛,鳖甲,知母,石膏,甘草,牛膝,薏仁,酸枣仁,黄连</t>
-  </si>
-  <si>
-    <t>若大便秘结，加瓜蒌仁；有虚热或汗多，加地骨皮；痰多，加川贝母；舌红而干，阴亏过甚，加石斛；胁胀痛，按之硬，加鳖甲；烦热而渴，加知母、石膏；腹痛，加芍药、甘草；两足痿软，加牛膝、薏仁；不寐，加酸枣仁；口苦燥，少加黄连。</t>
-  </si>
-  <si>
-    <t>OOOOOOOBIIOOOOOOOOOBIIOOOOOBIIOOOOOOOOOOOOBIOOOOOOOOOOBIOOOOOOOBIOBIOOOOOBIOBIOOOOOOOBIOBIOOOOOBIIOOOOOOOBIO</t>
-  </si>
-  <si>
-    <t>固本丸</t>
-  </si>
-  <si>
-    <t>柳州此方，虽从固本丸、集灵膏二方脱化而来，独加一味川楝；以调肝气之横逆，顺其条达之性，是为涵养肝阴第一良药。</t>
-  </si>
-  <si>
-    <t>OOOOOOObiiObiiOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>一贯煎</t>
-  </si>
-  <si>
-    <t>闫氏运用一贯煎加味治疗慢性萎缩性胃炎之胃阴不足型118例，总有效率为94.92％；对照组65例，总有效率73.68％。</t>
-  </si>
-  <si>
-    <t>OOOObiiOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>梧桐子</t>
-  </si>
-  <si>
-    <t>上为细末，炼蜜和丸，如梧桐子大，酒下十五丸(6g)，日再服。</t>
-  </si>
-  <si>
-    <t>OOOOOOBIIOOBIIOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>附子,桂枝</t>
-  </si>
-  <si>
-    <t>方中附子大辛大热，为温阳诸药之首；桂枝辛甘而温，乃温通阳气要药；二药相合，补肾阳之虚，助气化之复，共为君药。</t>
-  </si>
-  <si>
-    <t>OOBIOOOOOOOOOOOOOBIOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOO</t>
-  </si>
-  <si>
-    <t>干地黄,山茱萸,山药</t>
-  </si>
-  <si>
-    <t>然肾为水火之脏，内寓元阴元阳，阴阳一方的偏衰必将导致阴损及阳或阳损及阴，而且肾阳虚一般病程较久，多可由肾阴虚发展而来，若单补阳而不顾阴，则阳无以附，无从发挥温升之能，正如张介宾说：善补阳者，必于阴中求阳，则阳得阴助，而生化无穷(《类经》卷14)，故重用干地黄滋阴补肾；配伍山茱萸、山药补肝脾而益精血，共为臣药。</t>
-  </si>
-  <si>
-    <t>OOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOOBIIOOOOOOOBIIOBIOOOOOOOOOOOO0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFF00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAAFF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAAFF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1818,33 +1771,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2127,2825 +2059,2823 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="D201" sqref="D201"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="A164" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="54.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="101.375" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="242.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="54.95" customHeight="1">
       <c r="A1" s="1">
         <v>792</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A2" s="1">
         <v>793</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A3" s="1">
         <v>800</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A4" s="1">
         <v>801</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A5" s="1">
         <v>802</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A6" s="1">
         <v>803</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A7" s="1">
         <v>804</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A8" s="1">
         <v>810</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A9" s="1">
         <v>811</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A10" s="1">
         <v>818</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A11" s="1">
         <v>819</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A12" s="1">
         <v>820</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+    <row r="13" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A13" s="1">
         <v>823</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" ht="69.95" customHeight="1">
+      <c r="A14" s="1">
         <v>825</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A15" s="1">
         <v>827</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A16" s="1">
         <v>828</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A17" s="1">
         <v>830</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A18" s="1">
         <v>831</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A19" s="1">
         <v>835</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A20" s="1">
         <v>837</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A21" s="1">
         <v>845</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A22" s="1">
         <v>847</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A23" s="1">
         <v>848</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A24" s="1">
         <v>849</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A25" s="1">
         <v>853</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A26" s="1">
         <v>855</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A27" s="1">
         <v>857</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A28" s="1">
         <v>858</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A29" s="1">
         <v>868</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A30" s="1">
         <v>869</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A31" s="1">
         <v>870</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A32" s="1">
         <v>874</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A33" s="1">
         <v>881</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A34" s="1">
         <v>882</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A35" s="1">
         <v>883</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A36" s="1">
         <v>887</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A37" s="1">
         <v>890</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A38" s="1">
         <v>900</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A39" s="1">
         <v>901</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A40" s="1">
         <v>902</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A41" s="1">
         <v>912</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="2" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" ht="72.95" customHeight="1">
+      <c r="A42" s="1">
         <v>916</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A43" s="1">
         <v>919</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A44" s="1">
         <v>926</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A45" s="1">
         <v>927</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="D45" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A46" s="1">
         <v>928</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D46" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A47" s="1">
         <v>929</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A48" s="1">
         <v>930</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="2">
+    <row r="49" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A49" s="1">
         <v>934</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="2">
+    <row r="50" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A50" s="1">
         <v>942</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D50" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="2">
+    <row r="51" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A51" s="1">
         <v>944</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="2">
+    <row r="52" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A52" s="1">
         <v>945</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2">
+    <row r="53" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A53" s="1">
         <v>946</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D53" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="2">
+    <row r="54" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A54" s="1">
         <v>950</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="2">
+    <row r="55" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A55" s="1">
         <v>951</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="2">
+    <row r="56" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A56" s="1">
         <v>954</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D56" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="2">
+    <row r="57" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A57" s="1">
         <v>955</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D57" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2">
+    <row r="58" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A58" s="1">
         <v>957</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="2">
+    <row r="59" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A59" s="1">
         <v>958</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="2" customFormat="1" ht="104.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="2">
+    <row r="60" spans="1:4" ht="104.1" customHeight="1">
+      <c r="A60" s="1">
         <v>961</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="2">
+    <row r="61" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A61" s="1">
         <v>962</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2">
+    <row r="62" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A62" s="1">
         <v>964</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="2">
+    <row r="63" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A63" s="1">
         <v>968</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="2">
+    <row r="64" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A64" s="1">
         <v>971</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="2">
+    <row r="65" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A65" s="1">
         <v>972</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="2">
+    <row r="66" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A66" s="1">
         <v>973</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="2">
+    <row r="67" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A67" s="1">
         <v>974</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="2">
+    <row r="68" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A68" s="1">
         <v>985</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="2">
+    <row r="69" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A69" s="1">
         <v>986</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="2">
+    <row r="70" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A70" s="1">
         <v>987</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="2">
+    <row r="71" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A71" s="1">
         <v>988</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="2">
+    <row r="72" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A72" s="1">
         <v>989</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+    <row r="73" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A73" s="1">
         <v>992</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="2" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="2">
+    <row r="74" spans="1:4" ht="80.099999999999994" customHeight="1">
+      <c r="A74" s="1">
         <v>994</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="2">
+    <row r="75" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A75" s="1">
         <v>995</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="2">
+    <row r="76" spans="1:4" ht="84" customHeight="1">
+      <c r="A76" s="1">
         <v>997</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="2">
+    <row r="77" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A77" s="1">
         <v>1002</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="2">
+    <row r="78" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A78" s="1">
         <v>1003</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2">
+    <row r="79" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A79" s="1">
         <v>1004</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2">
+    <row r="80" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A80" s="1">
         <v>1005</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2">
+    <row r="81" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A81" s="1">
         <v>1006</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="2">
+    <row r="82" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A82" s="1">
         <v>1008</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2">
+    <row r="83" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A83" s="1">
         <v>1009</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="2">
+    <row r="84" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A84" s="1">
         <v>1020</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="2">
+    <row r="85" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A85" s="1">
         <v>1021</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="2">
+    <row r="86" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A86" s="1">
         <v>1022</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="2">
+    <row r="87" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A87" s="1">
         <v>1023</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="2">
+    <row r="88" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A88" s="1">
         <v>1024</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="2">
+    <row r="89" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A89" s="1">
         <v>1027</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="2">
+    <row r="90" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A90" s="1">
         <v>1032</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="2">
+    <row r="91" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A91" s="1">
         <v>1033</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="2">
+    <row r="92" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A92" s="1">
         <v>1034</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="2">
+    <row r="93" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A93" s="1">
         <v>1035</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="2">
+    <row r="94" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A94" s="1">
         <v>1037</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2">
+    <row r="95" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A95" s="1">
         <v>1038</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="2">
+    <row r="96" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A96" s="1">
         <v>1039</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="2">
+    <row r="97" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A97" s="1">
         <v>1042</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="2">
+    <row r="98" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A98" s="1">
         <v>1051</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="2">
+    <row r="99" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A99" s="1">
         <v>1052</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D99" s="6" t="s">
+      <c r="D99" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="2">
+    <row r="100" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A100" s="1">
         <v>1053</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D100" s="6" t="s">
+      <c r="D100" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="2">
+    <row r="101" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A101" s="1">
         <v>1054</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D101" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="2">
+    <row r="102" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A102" s="1">
         <v>1062</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D102" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="2">
+    <row r="103" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A103" s="1">
         <v>1065</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D103" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="2">
+    <row r="104" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A104" s="1">
         <v>1066</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D104" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="2">
+    <row r="105" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A105" s="1">
         <v>1076</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="2">
+    <row r="106" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A106" s="1">
         <v>1077</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D106" s="6" t="s">
+      <c r="D106" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="2">
+    <row r="107" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A107" s="1">
         <v>1078</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="2">
+    <row r="108" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A108" s="1">
         <v>1079</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D108" s="6" t="s">
+      <c r="D108" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="2">
+    <row r="109" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A109" s="1">
         <v>1084</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="2">
+    <row r="110" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A110" s="1">
         <v>1091</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D110" s="6" t="s">
+      <c r="D110" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="2">
+    <row r="111" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A111" s="1">
         <v>1095</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D111" s="6" t="s">
+      <c r="D111" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="2">
+    <row r="112" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A112" s="1">
         <v>1099</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D112" s="6" t="s">
+      <c r="D112" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="2">
+    <row r="113" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A113" s="1">
         <v>1103</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="2">
+    <row r="114" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A114" s="1">
         <v>1104</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="2">
+    <row r="115" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A115" s="1">
         <v>1106</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="2">
+    <row r="116" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A116" s="1">
         <v>1110</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D116" s="6" t="s">
+      <c r="D116" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="2">
+    <row r="117" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A117" s="1">
         <v>1111</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="D117" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="2">
+    <row r="118" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A118" s="1">
         <v>1113</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D118" s="6" t="s">
+      <c r="D118" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="2">
+    <row r="119" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A119" s="1">
         <v>1119</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D119" s="6" t="s">
+      <c r="D119" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="120" spans="1:4" s="2" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="2">
+    <row r="120" spans="1:4" ht="75" customHeight="1">
+      <c r="A120" s="1">
         <v>1120</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D120" s="6" t="s">
+      <c r="D120" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="2">
+    <row r="121" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A121" s="1">
         <v>1121</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D121" s="6" t="s">
+      <c r="D121" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="2">
+    <row r="122" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A122" s="1">
         <v>1122</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="2">
+    <row r="123" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A123" s="1">
         <v>1124</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="2">
+    <row r="124" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A124" s="1">
         <v>1126</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="2">
+    <row r="125" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A125" s="1">
         <v>1127</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="2">
+    <row r="126" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A126" s="1">
         <v>1128</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="2">
+    <row r="127" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A127" s="1">
         <v>1133</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="2">
+    <row r="128" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A128" s="1">
         <v>1134</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D128" s="6" t="s">
+      <c r="D128" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="2">
+    <row r="129" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A129" s="1">
         <v>1135</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D129" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="2">
+    <row r="130" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A130" s="1">
         <v>1136</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D130" s="6" t="s">
+      <c r="D130" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="2">
+    <row r="131" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A131" s="1">
         <v>1140</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D131" s="6" t="s">
+      <c r="D131" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="2">
+    <row r="132" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A132" s="1">
         <v>1144</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D132" s="6" t="s">
+      <c r="D132" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="2">
+    <row r="133" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A133" s="1">
         <v>1147</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D133" s="6" t="s">
+      <c r="D133" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="2">
+    <row r="134" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A134" s="1">
         <v>1149</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D134" s="6" t="s">
+      <c r="D134" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="2">
+    <row r="135" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A135" s="1">
         <v>1152</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="136" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="2">
+    <row r="136" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A136" s="1">
         <v>1156</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="137" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="2">
+    <row r="137" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A137" s="1">
         <v>1157</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="D137" s="6" t="s">
+      <c r="D137" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="138" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="2">
+    <row r="138" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A138" s="1">
         <v>1158</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="2">
+    <row r="139" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A139" s="1">
         <v>1159</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="2">
+    <row r="140" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A140" s="1">
         <v>1160</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D140" s="6" t="s">
+      <c r="D140" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="2" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="2">
+    <row r="141" spans="1:4" ht="78" customHeight="1">
+      <c r="A141" s="1">
         <v>1162</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D141" s="6" t="s">
+      <c r="D141" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="2" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="2">
+    <row r="142" spans="1:4" ht="80.099999999999994" customHeight="1">
+      <c r="A142" s="1">
         <v>1171</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D142" s="6" t="s">
+      <c r="D142" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="2">
+    <row r="143" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A143" s="1">
         <v>1172</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D143" s="6" t="s">
+      <c r="D143" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="2">
+    <row r="144" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A144" s="1">
         <v>1176</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D144" s="6" t="s">
+      <c r="D144" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="2">
+    <row r="145" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A145" s="1">
         <v>1177</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D145" s="6" t="s">
+      <c r="D145" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="2">
+    <row r="146" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A146" s="1">
         <v>1178</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D146" s="6" t="s">
+      <c r="D146" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="2">
+    <row r="147" spans="1:4" ht="60" customHeight="1">
+      <c r="A147" s="1">
         <v>1181</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="D147" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="2">
+    <row r="148" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A148" s="1">
         <v>1184</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="2">
+    <row r="149" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A149" s="1">
         <v>1187</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D149" s="6" t="s">
+      <c r="D149" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="2">
+    <row r="150" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A150" s="1">
         <v>1188</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="2">
+    <row r="151" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A151" s="1">
         <v>1190</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="2">
+    <row r="152" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A152" s="1">
         <v>1200</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D152" s="6" t="s">
+      <c r="D152" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="2">
+    <row r="153" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A153" s="1">
         <v>1201</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="2">
+    <row r="154" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A154" s="1">
         <v>1202</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D154" s="6" t="s">
+      <c r="D154" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="2">
+    <row r="155" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A155" s="1">
         <v>1204</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D155" s="6" t="s">
+      <c r="D155" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="2" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="2">
+    <row r="156" spans="1:4" ht="77.099999999999994" customHeight="1">
+      <c r="A156" s="1">
         <v>1210</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="2" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="2">
+    <row r="157" spans="1:4" ht="60.95" customHeight="1">
+      <c r="A157" s="1">
         <v>1212</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D157" s="6" t="s">
+      <c r="D157" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="158" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="2">
+    <row r="158" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A158" s="1">
         <v>1213</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D158" s="6" t="s">
+      <c r="D158" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="2">
+    <row r="159" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A159" s="1">
         <v>1214</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="2">
+    <row r="160" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A160" s="1">
         <v>1215</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D160" s="6" t="s">
+      <c r="D160" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="2">
+    <row r="161" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A161" s="1">
         <v>1219</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="2">
+    <row r="162" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A162" s="1">
         <v>1224</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D162" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="2">
+    <row r="163" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A163" s="1">
         <v>1228</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="164" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="2">
+    <row r="164" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A164" s="1">
         <v>1229</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="165" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="2">
+    <row r="165" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A165" s="1">
         <v>1231</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="D165" s="6" t="s">
+      <c r="D165" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="166" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="2">
+    <row r="166" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A166" s="1">
         <v>1232</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="D166" s="6" t="s">
+      <c r="D166" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="167" spans="1:4" s="2" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="2">
+    <row r="167" spans="1:4" ht="81.95" customHeight="1">
+      <c r="A167" s="1">
         <v>1233</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D167" s="6" t="s">
+      <c r="D167" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="168" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="2">
+    <row r="168" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A168" s="1">
         <v>1234</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D168" s="6" t="s">
+      <c r="D168" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="169" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="2">
+    <row r="169" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A169" s="1">
         <v>1235</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="170" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="2">
+    <row r="170" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A170" s="1">
         <v>1237</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C170" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D170" s="8" t="s">
+    </row>
+    <row r="171" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A171" s="1">
+        <v>1244</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="2">
-        <v>1244</v>
-      </c>
-      <c r="B171" s="6" t="s">
+      <c r="C171" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="D171" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="D171" s="6" t="s">
+    </row>
+    <row r="172" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A172" s="1">
+        <v>1245</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="2">
-        <v>1245</v>
-      </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="D172" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D172" s="6" t="s">
+    </row>
+    <row r="173" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A173" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="2">
-        <v>1246</v>
-      </c>
-      <c r="B173" s="6" t="s">
+      <c r="C173" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="D173" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D173" s="7" t="s">
+    </row>
+    <row r="174" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A174" s="1">
+        <v>1248</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="2">
-        <v>1248</v>
-      </c>
-      <c r="B174" s="6" t="s">
+      <c r="C174" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="D174" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="D174" s="7" t="s">
+    </row>
+    <row r="175" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A175" s="1">
+        <v>1250</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" s="2" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="2">
-        <v>1250</v>
-      </c>
-      <c r="B175" s="6" t="s">
+      <c r="C175" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="D175" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D175" s="6" t="s">
+    </row>
+    <row r="176" spans="1:4" ht="71.099999999999994" customHeight="1">
+      <c r="A176" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" s="2" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="2">
-        <v>1252</v>
-      </c>
-      <c r="B176" s="6" t="s">
+      <c r="C176" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="D176" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D176" s="7" t="s">
+    </row>
+    <row r="177" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A177" s="1">
+        <v>1259</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="2">
-        <v>1259</v>
-      </c>
-      <c r="B177" s="6" t="s">
+      <c r="C177" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="D177" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="D177" s="6" t="s">
+    </row>
+    <row r="178" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A178" s="1">
+        <v>1260</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="2">
-        <v>1260</v>
-      </c>
-      <c r="B178" s="6" t="s">
+      <c r="C178" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="D178" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="D178" s="6" t="s">
+    </row>
+    <row r="179" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A179" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="2">
-        <v>1261</v>
-      </c>
-      <c r="B179" s="6" t="s">
+      <c r="C179" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="D179" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="D179" s="6" t="s">
+    </row>
+    <row r="180" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A180" s="1">
+        <v>1262</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="2">
-        <v>1262</v>
-      </c>
-      <c r="B180" s="6" t="s">
+      <c r="C180" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="D180" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="D180" s="6" t="s">
+    </row>
+    <row r="181" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A181" s="1">
+        <v>1264</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="2">
-        <v>1264</v>
-      </c>
-      <c r="B181" s="6" t="s">
+      <c r="C181" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="D181" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D181" s="8" t="s">
+    </row>
+    <row r="182" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A182" s="1">
+        <v>1267</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="2">
-        <v>1267</v>
-      </c>
-      <c r="B182" s="6" t="s">
+      <c r="C182" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="D182" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D182" s="6" t="s">
+    </row>
+    <row r="183" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A183" s="1">
+        <v>1274</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="2">
-        <v>1274</v>
-      </c>
-      <c r="B183" s="6" t="s">
+      <c r="C183" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="D183" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D183" s="6" t="s">
+    </row>
+    <row r="184" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A184" s="1">
+        <v>1275</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="2">
-        <v>1275</v>
-      </c>
-      <c r="B184" s="6" t="s">
+      <c r="C184" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="D184" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D184" s="6" t="s">
+    </row>
+    <row r="185" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A185" s="1">
+        <v>1276</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="2">
-        <v>1276</v>
-      </c>
-      <c r="B185" s="6" t="s">
+      <c r="C185" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="D185" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D185" s="7" t="s">
+    </row>
+    <row r="186" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A186" s="1">
+        <v>1280</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="2">
-        <v>1280</v>
-      </c>
-      <c r="B186" s="6" t="s">
+      <c r="C186" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="D186" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="D186" s="6" t="s">
+    </row>
+    <row r="187" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A187" s="1">
+        <v>1281</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="2">
-        <v>1281</v>
-      </c>
-      <c r="B187" s="6" t="s">
+      <c r="C187" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="D187" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="D187" s="7" t="s">
+    </row>
+    <row r="188" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A188" s="1">
+        <v>1284</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="2">
-        <v>1284</v>
-      </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="D188" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="D188" s="6" t="s">
+    </row>
+    <row r="189" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A189" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="2">
-        <v>1291</v>
-      </c>
-      <c r="B189" s="6" t="s">
+      <c r="C189" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="D189" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D189" s="6" t="s">
+    </row>
+    <row r="190" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A190" s="1">
+        <v>1292</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="2">
-        <v>1292</v>
-      </c>
-      <c r="B190" s="6" t="s">
+      <c r="C190" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="D190" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D190" s="6" t="s">
+    </row>
+    <row r="191" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A191" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="2">
-        <v>1293</v>
-      </c>
-      <c r="B191" s="6" t="s">
+      <c r="C191" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="D191" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D191" s="6" t="s">
+    </row>
+    <row r="192" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A192" s="1">
+        <v>1296</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="2">
-        <v>1296</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C192" s="6" t="s">
+      <c r="D192" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D192" s="6" t="s">
+    </row>
+    <row r="193" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A193" s="1">
+        <v>1298</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="2">
-        <v>1298</v>
-      </c>
-      <c r="B193" s="6" t="s">
+      <c r="C193" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="D193" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="D193" s="6" t="s">
+    </row>
+    <row r="194" spans="1:4" ht="62.1" customHeight="1">
+      <c r="A194" s="1">
+        <v>1299</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" s="2" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="2">
-        <v>1299</v>
-      </c>
-      <c r="B194" s="6" t="s">
+      <c r="C194" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="D194" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="D194" s="6" t="s">
+    </row>
+    <row r="195" spans="1:4" ht="69" customHeight="1">
+      <c r="A195" s="1">
+        <v>1302</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" s="2" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="2">
-        <v>1302</v>
-      </c>
-      <c r="B195" s="6" t="s">
+      <c r="C195" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="D195" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="D195" s="7" t="s">
+    </row>
+    <row r="196" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A196" s="1">
+        <v>1310</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="2">
-        <v>1310</v>
-      </c>
-      <c r="B196" s="6" t="s">
+      <c r="C196" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="D196" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D196" s="7" t="s">
+    </row>
+    <row r="197" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A197" s="1">
+        <v>1314</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="2">
-        <v>1314</v>
-      </c>
-      <c r="B197" s="6" t="s">
+      <c r="C197" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="D197" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D197" s="6" t="s">
+    </row>
+    <row r="198" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A198" s="1">
+        <v>1316</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="2">
-        <v>1316</v>
-      </c>
-      <c r="B198" s="6" t="s">
+      <c r="C198" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="D198" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D198" s="6" t="s">
+    </row>
+    <row r="199" spans="1:4" ht="54.95" customHeight="1">
+      <c r="A199" s="1">
+        <v>1320</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" s="2" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="2">
-        <v>1320</v>
-      </c>
-      <c r="B199" s="6" t="s">
+      <c r="C199" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="D199" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D199" s="6" t="s">
+    </row>
+    <row r="200" spans="1:4" ht="84.95" customHeight="1">
+      <c r="A200" s="1">
+        <v>1321</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" s="2" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="2">
-        <v>1321</v>
-      </c>
-      <c r="B200" s="6" t="s">
+      <c r="C200" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="D200" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="D200" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" s="3" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" spans="1:4" s="3" customFormat="1" ht="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>